--- a/biology/Botanique/Le_Conte_(poire)/Le_Conte_(poire).xlsx
+++ b/biology/Botanique/Le_Conte_(poire)/Le_Conte_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Le Conte  est une variété de poirier ancien, très connu aux États-Unis, dans la région de New York.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété fruitière tient son nom de John Eatton Le Conte qui l'a introduite en Géorgie en 1856[1],[2].
-C'est un croisement : Pyrus hybrid P. x leconteiP. communis x P. pyrifolia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété fruitière tient son nom de John Eatton Le Conte qui l'a introduite en Géorgie en 1856,.
+C'est un croisement : Pyrus hybrid P. x leconteiP. communis x P. pyrifolia.
 </t>
         </is>
       </c>
@@ -545,13 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Ce poirier peut atteindre 8 m de haut et ne craint pas le gel[1].
-Fruit
-Les fleurs sont hermaphrodites et sont pollinisées par les insectes[1].
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poirier peut atteindre 8 m de haut et ne craint pas le gel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Conte_(poire)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Conte_(poire)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont hermaphrodites et sont pollinisées par les insectes.
 La poire mesure 8 cm de haut et 5 cm de large.
 La chair ressemble à celle des poires asiatiques du genre nashi.
-Le fruit peut être consommé cru ou cuit dès la cueillette[1].
+Le fruit peut être consommé cru ou cuit dès la cueillette.
 Il est également possible de le conserver de quelques jours à plusieurs mois. On l'utilise surtout pour la confection de tartes et de conserves.
 </t>
         </is>
